--- a/dersler.xlsx
+++ b/dersler.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EFE\PycharmProjects\DersTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EFE\PycharmProjects\DersTestv3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAA0676-DCAD-4B48-B8EE-CDBC18C738C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C4C816-54D8-44D3-ADE4-4CC9B02BBD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OgretimUyeleri" sheetId="1" r:id="rId1"/>
@@ -2065,7 +2065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2086,7 +2088,7 @@
         <v>86</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2094,7 +2096,7 @@
         <v>87</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2102,7 +2104,7 @@
         <v>88</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2110,7 +2112,7 @@
         <v>89</v>
       </c>
       <c r="B5">
-        <v>48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2118,7 +2120,7 @@
         <v>90</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2126,7 +2128,7 @@
         <v>91</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2134,7 +2136,7 @@
         <v>92</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2142,7 +2144,7 @@
         <v>93</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2150,7 +2152,7 @@
         <v>94</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2158,7 +2160,7 @@
         <v>95</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2166,7 +2168,7 @@
         <v>96</v>
       </c>
       <c r="B12">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2174,7 +2176,7 @@
         <v>97</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2182,7 +2184,7 @@
         <v>98</v>
       </c>
       <c r="B14">
-        <v>48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2190,7 +2192,7 @@
         <v>99</v>
       </c>
       <c r="B15">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2198,7 +2200,7 @@
         <v>100</v>
       </c>
       <c r="B16">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2206,7 +2208,7 @@
         <v>101</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2214,7 +2216,7 @@
         <v>102</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2222,7 +2224,7 @@
         <v>103</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2258,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2295,7 +2297,7 @@
         <v>76</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2309,7 +2311,7 @@
         <v>76</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2323,7 +2325,7 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2337,7 +2339,7 @@
         <v>46</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2351,7 +2353,7 @@
         <v>76</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2365,7 +2367,7 @@
         <v>137</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2379,7 +2381,7 @@
         <v>167</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2393,7 +2395,7 @@
         <v>46</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2407,7 +2409,7 @@
         <v>130</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2421,7 +2423,7 @@
         <v>143</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2435,7 +2437,7 @@
         <v>178</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2449,7 +2451,7 @@
         <v>179</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2463,7 +2465,7 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2477,7 +2479,7 @@
         <v>114</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2491,7 +2493,7 @@
         <v>125</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2505,7 +2507,7 @@
         <v>164</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2519,7 +2521,7 @@
         <v>180</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2533,7 +2535,7 @@
         <v>46</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2547,7 +2549,7 @@
         <v>46</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2561,7 +2563,7 @@
         <v>177</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2575,7 +2577,7 @@
         <v>46</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2589,7 +2591,7 @@
         <v>137</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2603,7 +2605,7 @@
         <v>167</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2617,7 +2619,7 @@
         <v>167</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2631,7 +2633,7 @@
         <v>39</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2645,7 +2647,7 @@
         <v>46</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2659,7 +2661,7 @@
         <v>143</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2673,7 +2675,7 @@
         <v>30</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2687,7 +2689,7 @@
         <v>76</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2701,7 +2703,7 @@
         <v>114</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2715,7 +2717,7 @@
         <v>68</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2729,7 +2731,7 @@
         <v>114</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2743,7 +2745,7 @@
         <v>130</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2757,7 +2759,7 @@
         <v>143</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2771,7 +2773,7 @@
         <v>167</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2785,7 +2787,7 @@
         <v>172</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2799,7 +2801,7 @@
         <v>179</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2813,7 +2815,7 @@
         <v>46</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2827,7 +2829,7 @@
         <v>46</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2841,7 +2843,7 @@
         <v>46</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2855,7 +2857,7 @@
         <v>114</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2869,7 +2871,7 @@
         <v>167</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2883,7 +2885,7 @@
         <v>46</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2897,7 +2899,7 @@
         <v>46</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2911,7 +2913,7 @@
         <v>114</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2925,7 +2927,7 @@
         <v>39</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2939,7 +2941,7 @@
         <v>125</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2953,7 +2955,7 @@
         <v>164</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2967,7 +2969,7 @@
         <v>180</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2981,7 +2983,7 @@
         <v>30</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2995,7 +2997,7 @@
         <v>30</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -3009,7 +3011,7 @@
         <v>68</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3023,7 +3025,7 @@
         <v>157</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3037,7 +3039,7 @@
         <v>39</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3051,7 +3053,7 @@
         <v>46</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3065,7 +3067,7 @@
         <v>137</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3079,7 +3081,7 @@
         <v>137</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3093,7 +3095,7 @@
         <v>30</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -3107,7 +3109,7 @@
         <v>30</v>
       </c>
       <c r="D60">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3121,7 +3123,7 @@
         <v>30</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3135,7 +3137,7 @@
         <v>30</v>
       </c>
       <c r="D62">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3149,7 +3151,7 @@
         <v>30</v>
       </c>
       <c r="D63">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -3163,7 +3165,7 @@
         <v>39</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3177,7 +3179,7 @@
         <v>125</v>
       </c>
       <c r="D65">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3191,7 +3193,7 @@
         <v>125</v>
       </c>
       <c r="D66">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3205,7 +3207,7 @@
         <v>164</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3219,7 +3221,7 @@
         <v>180</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3233,7 +3235,7 @@
         <v>68</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3247,7 +3249,7 @@
         <v>152</v>
       </c>
       <c r="D70">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3261,7 +3263,7 @@
         <v>157</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3275,7 +3277,7 @@
         <v>46</v>
       </c>
       <c r="D72">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3289,7 +3291,7 @@
         <v>120</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3303,7 +3305,7 @@
         <v>157</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3317,7 +3319,7 @@
         <v>180</v>
       </c>
       <c r="D75">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -3331,7 +3333,7 @@
         <v>68</v>
       </c>
       <c r="D76">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -3345,7 +3347,7 @@
         <v>114</v>
       </c>
       <c r="D77">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3359,7 +3361,7 @@
         <v>125</v>
       </c>
       <c r="D78">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -3373,7 +3375,7 @@
         <v>176</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3387,7 +3389,7 @@
         <v>180</v>
       </c>
       <c r="D80">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3401,7 +3403,7 @@
         <v>39</v>
       </c>
       <c r="D81">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3415,7 +3417,7 @@
         <v>46</v>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -3429,7 +3431,7 @@
         <v>130</v>
       </c>
       <c r="D83">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3443,7 +3445,7 @@
         <v>143</v>
       </c>
       <c r="D84">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -3457,7 +3459,7 @@
         <v>151</v>
       </c>
       <c r="D85">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3471,7 +3473,7 @@
         <v>178</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3485,7 +3487,7 @@
         <v>179</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3499,7 +3501,7 @@
         <v>46</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3513,7 +3515,7 @@
         <v>46</v>
       </c>
       <c r="D89">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3527,7 +3529,7 @@
         <v>153</v>
       </c>
       <c r="D90">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3541,7 +3543,7 @@
         <v>176</v>
       </c>
       <c r="D91">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3555,7 +3557,7 @@
         <v>180</v>
       </c>
       <c r="D92">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3569,7 +3571,7 @@
         <v>46</v>
       </c>
       <c r="D93">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3583,7 +3585,7 @@
         <v>114</v>
       </c>
       <c r="D94">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -3597,7 +3599,7 @@
         <v>137</v>
       </c>
       <c r="D95">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3611,7 +3613,7 @@
         <v>39</v>
       </c>
       <c r="D96">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3625,7 +3627,7 @@
         <v>68</v>
       </c>
       <c r="D97">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3639,7 +3641,7 @@
         <v>120</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3653,7 +3655,7 @@
         <v>120</v>
       </c>
       <c r="D99">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3667,7 +3669,7 @@
         <v>197</v>
       </c>
       <c r="D100">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3681,7 +3683,7 @@
         <v>157</v>
       </c>
       <c r="D101">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3695,7 +3697,7 @@
         <v>46</v>
       </c>
       <c r="D102">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3709,7 +3711,7 @@
         <v>130</v>
       </c>
       <c r="D103">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -3723,7 +3725,7 @@
         <v>143</v>
       </c>
       <c r="D104">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -3737,7 +3739,7 @@
         <v>151</v>
       </c>
       <c r="D105">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3751,7 +3753,7 @@
         <v>172</v>
       </c>
       <c r="D106">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3765,7 +3767,7 @@
         <v>172</v>
       </c>
       <c r="D107">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3779,7 +3781,7 @@
         <v>179</v>
       </c>
       <c r="D108">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3793,7 +3795,7 @@
         <v>46</v>
       </c>
       <c r="D109">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3807,7 +3809,7 @@
         <v>120</v>
       </c>
       <c r="D110">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3821,7 +3823,7 @@
         <v>157</v>
       </c>
       <c r="D111">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3835,7 +3837,7 @@
         <v>68</v>
       </c>
       <c r="D112">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3849,7 +3851,7 @@
         <v>120</v>
       </c>
       <c r="D113">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3863,7 +3865,7 @@
         <v>151</v>
       </c>
       <c r="D114">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3877,7 +3879,7 @@
         <v>157</v>
       </c>
       <c r="D115">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3891,7 +3893,7 @@
         <v>46</v>
       </c>
       <c r="D116">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3905,7 +3907,7 @@
         <v>114</v>
       </c>
       <c r="D117">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3919,7 +3921,7 @@
         <v>130</v>
       </c>
       <c r="D118">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3933,7 +3935,7 @@
         <v>143</v>
       </c>
       <c r="D119">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -3947,7 +3949,7 @@
         <v>178</v>
       </c>
       <c r="D120">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3961,7 +3963,7 @@
         <v>179</v>
       </c>
       <c r="D121">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -3975,7 +3977,7 @@
         <v>46</v>
       </c>
       <c r="D122">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3989,7 +3991,7 @@
         <v>76</v>
       </c>
       <c r="D123">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -4003,7 +4005,7 @@
         <v>76</v>
       </c>
       <c r="D124">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -4017,7 +4019,7 @@
         <v>76</v>
       </c>
       <c r="D125">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -4031,7 +4033,7 @@
         <v>114</v>
       </c>
       <c r="D126">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -4045,7 +4047,7 @@
         <v>137</v>
       </c>
       <c r="D127">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/dersler.xlsx
+++ b/dersler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EFE\PycharmProjects\DersTestv3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C4C816-54D8-44D3-ADE4-4CC9B02BBD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E737ACEC-2C90-45CE-AB2B-775C03281393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OgretimUyeleri" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="200">
   <si>
     <t>OgretimUyesi</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Prof. Dr. Keti VENTURA</t>
   </si>
   <si>
-    <t>Araş. Gör. Dr. Begüm KANAT TİRYAKİ</t>
-  </si>
-  <si>
     <t>Dersler</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>Ticaret Hukuku (Tasfiye)</t>
   </si>
   <si>
-    <t>İşletmeye Giriş</t>
-  </si>
-  <si>
     <t>Derslikler</t>
   </si>
   <si>
@@ -623,6 +617,12 @@
   </si>
   <si>
     <t>Tüketici Davranışları B</t>
+  </si>
+  <si>
+    <t>Durum</t>
+  </si>
+  <si>
+    <t>Zorunlu</t>
   </si>
 </sst>
 </file>
@@ -986,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,27 +1004,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -1154,12 +1154,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1169,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1183,602 +1178,602 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" t="s">
         <v>128</v>
-      </c>
-      <c r="B43" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
         <v>75</v>
-      </c>
-      <c r="B53" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="B62" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1786,175 +1781,175 @@
         <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="B77" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="B80" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="B83" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="B87" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B96" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="B97" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1962,100 +1957,92 @@
         <v>140</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="B99" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="B100" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="B102" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="B106" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B108" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>196</v>
-      </c>
-      <c r="B109" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B108">
-    <sortCondition ref="A27:A108"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B107">
+    <sortCondition ref="A27:A107"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2065,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2077,15 +2064,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -2093,7 +2080,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -2101,7 +2088,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -2109,7 +2096,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -2117,7 +2104,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -2125,7 +2112,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -2133,7 +2120,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -2141,7 +2128,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -2149,7 +2136,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -2157,7 +2144,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -2165,7 +2152,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -2173,7 +2160,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -2181,7 +2168,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -2189,7 +2176,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -2197,7 +2184,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -2205,7 +2192,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17">
         <v>100</v>
@@ -2213,7 +2200,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -2221,7 +2208,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19">
         <v>100</v>
@@ -2229,7 +2216,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B20">
         <v>41</v>
@@ -2237,7 +2224,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B21">
         <v>36</v>
@@ -2245,7 +2232,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22">
         <v>64</v>
@@ -2258,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2269,1790 +2256,2053 @@
     <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
         <v>141</v>
       </c>
-      <c r="C7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="D9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="D14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="D15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
         <v>124</v>
       </c>
-      <c r="C16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" t="s">
         <v>165</v>
       </c>
-      <c r="C17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="C25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="D25" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
         <v>143</v>
       </c>
-      <c r="D28">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" t="s">
-        <v>118</v>
-      </c>
       <c r="C31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="D32" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="D33" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="D34" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
-      </c>
-      <c r="D35">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>199</v>
+      </c>
+      <c r="E38">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
       <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
         <v>45</v>
       </c>
-      <c r="C39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="D42" t="s">
+        <v>199</v>
+      </c>
+      <c r="E42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>199</v>
+      </c>
+      <c r="E43">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" t="s">
+        <v>199</v>
+      </c>
+      <c r="E53">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E54">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" t="s">
+        <v>199</v>
+      </c>
+      <c r="E57">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
         <v>126</v>
       </c>
-      <c r="C43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D43">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>129</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="C62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
         <v>125</v>
       </c>
-      <c r="D48">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>163</v>
-      </c>
-      <c r="C49" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>189</v>
-      </c>
-      <c r="C50" t="s">
-        <v>180</v>
-      </c>
-      <c r="D50">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>109</v>
-      </c>
-      <c r="B60" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>111</v>
-      </c>
-      <c r="B62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" t="s">
-        <v>37</v>
-      </c>
       <c r="C63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="D63" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D64">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="D64" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="D65" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="D66" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
-      </c>
-      <c r="D67">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="D67" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
-      </c>
-      <c r="D68">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D68" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" t="s">
+        <v>199</v>
+      </c>
+      <c r="E69">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" t="s">
+        <v>199</v>
+      </c>
+      <c r="E71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" t="s">
         <v>68</v>
       </c>
-      <c r="D69">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C72" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" t="s">
+        <v>199</v>
+      </c>
+      <c r="E72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" t="s">
+        <v>199</v>
+      </c>
+      <c r="E73">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" t="s">
         <v>123</v>
       </c>
-      <c r="C70" t="s">
-        <v>152</v>
-      </c>
-      <c r="D70">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" t="s">
-        <v>157</v>
-      </c>
-      <c r="D71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" t="s">
-        <v>121</v>
-      </c>
-      <c r="C73" t="s">
-        <v>120</v>
-      </c>
-      <c r="D73">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>12</v>
-      </c>
-      <c r="B74" t="s">
-        <v>123</v>
-      </c>
-      <c r="C74" t="s">
-        <v>157</v>
-      </c>
-      <c r="D74">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>199</v>
+      </c>
+      <c r="E74">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B75" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
-      </c>
-      <c r="D75">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="D75" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="C76" t="s">
-        <v>68</v>
-      </c>
-      <c r="D76">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="D76" t="s">
+        <v>199</v>
+      </c>
+      <c r="E76">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="C77" t="s">
-        <v>114</v>
-      </c>
-      <c r="D77">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D77" t="s">
+        <v>199</v>
+      </c>
+      <c r="E77">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>125</v>
-      </c>
-      <c r="D78">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D78" t="s">
+        <v>199</v>
+      </c>
+      <c r="E78">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
-      </c>
-      <c r="D79">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="D79" t="s">
+        <v>199</v>
+      </c>
+      <c r="E79">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="C80" t="s">
-        <v>180</v>
-      </c>
-      <c r="D80">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="D80" t="s">
+        <v>199</v>
+      </c>
+      <c r="E80">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
-      </c>
-      <c r="D81">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="D81" t="s">
+        <v>199</v>
+      </c>
+      <c r="E81">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
-        <v>46</v>
-      </c>
-      <c r="D82">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="D82" t="s">
+        <v>199</v>
+      </c>
+      <c r="E82">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
-      </c>
-      <c r="D83">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="D83" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="C84" t="s">
-        <v>143</v>
-      </c>
-      <c r="D84">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D84" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="C85" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85" t="s">
+        <v>199</v>
+      </c>
+      <c r="E85">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" t="s">
         <v>151</v>
       </c>
-      <c r="D85">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" t="s">
-        <v>149</v>
-      </c>
-      <c r="C86" t="s">
-        <v>178</v>
-      </c>
-      <c r="D86">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>199</v>
+      </c>
+      <c r="E86">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
-      </c>
-      <c r="D87">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="D87" t="s">
+        <v>199</v>
+      </c>
+      <c r="E87">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
-      </c>
-      <c r="D88">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="D88" t="s">
+        <v>199</v>
+      </c>
+      <c r="E88">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C89" t="s">
-        <v>46</v>
-      </c>
-      <c r="D89">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D89" t="s">
+        <v>199</v>
+      </c>
+      <c r="E89">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D90">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="D90" t="s">
+        <v>199</v>
+      </c>
+      <c r="E90">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="C91" t="s">
-        <v>176</v>
-      </c>
-      <c r="D91">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="D91" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="C92" t="s">
-        <v>180</v>
-      </c>
-      <c r="D92">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D92" t="s">
+        <v>199</v>
+      </c>
+      <c r="E92">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C93" t="s">
-        <v>46</v>
-      </c>
-      <c r="D93">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="D93" t="s">
+        <v>199</v>
+      </c>
+      <c r="E93">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
-      </c>
-      <c r="D94">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="D94" t="s">
+        <v>199</v>
+      </c>
+      <c r="E94">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="C95" t="s">
-        <v>137</v>
-      </c>
-      <c r="D95">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="D95" t="s">
+        <v>199</v>
+      </c>
+      <c r="E95">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="C96" t="s">
-        <v>39</v>
-      </c>
-      <c r="D96">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="D96" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="C97" t="s">
-        <v>68</v>
-      </c>
-      <c r="D97">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="D97" t="s">
+        <v>199</v>
+      </c>
+      <c r="E97">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="C98" t="s">
-        <v>120</v>
-      </c>
-      <c r="D98">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D98" t="s">
+        <v>199</v>
+      </c>
+      <c r="E98">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="C99" t="s">
-        <v>120</v>
-      </c>
-      <c r="D99">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="D99" t="s">
+        <v>199</v>
+      </c>
+      <c r="E99">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
-      </c>
-      <c r="D100">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="D100" t="s">
+        <v>199</v>
+      </c>
+      <c r="E100">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="C101" t="s">
-        <v>157</v>
-      </c>
-      <c r="D101">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="D101" t="s">
+        <v>199</v>
+      </c>
+      <c r="E101">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
-      </c>
-      <c r="D102">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="D102" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="C103" t="s">
-        <v>130</v>
-      </c>
-      <c r="D103">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="D103" t="s">
+        <v>199</v>
+      </c>
+      <c r="E103">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="C104" t="s">
-        <v>143</v>
-      </c>
-      <c r="D104">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="D104" t="s">
+        <v>199</v>
+      </c>
+      <c r="E104">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B105" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" t="s">
+        <v>118</v>
+      </c>
+      <c r="D106" t="s">
+        <v>199</v>
+      </c>
+      <c r="E106">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
         <v>117</v>
       </c>
-      <c r="C105" t="s">
-        <v>151</v>
-      </c>
-      <c r="D105">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>19</v>
-      </c>
-      <c r="B106" t="s">
-        <v>171</v>
-      </c>
-      <c r="C106" t="s">
-        <v>172</v>
-      </c>
-      <c r="D106">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>19</v>
-      </c>
-      <c r="B107" t="s">
-        <v>173</v>
-      </c>
       <c r="C107" t="s">
-        <v>172</v>
-      </c>
-      <c r="D107">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="D107" t="s">
+        <v>199</v>
+      </c>
+      <c r="E107">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="C108" t="s">
-        <v>179</v>
-      </c>
-      <c r="D108">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="D108" t="s">
+        <v>199</v>
+      </c>
+      <c r="E108">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B109" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C109" t="s">
-        <v>46</v>
-      </c>
-      <c r="D109">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="D109" t="s">
+        <v>199</v>
+      </c>
+      <c r="E109">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>120</v>
-      </c>
-      <c r="D110">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="D110" t="s">
+        <v>199</v>
+      </c>
+      <c r="E110">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
-      </c>
-      <c r="D111">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="D111" t="s">
+        <v>199</v>
+      </c>
+      <c r="E111">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C112" t="s">
-        <v>68</v>
-      </c>
-      <c r="D112">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D112" t="s">
+        <v>199</v>
+      </c>
+      <c r="E112">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>120</v>
-      </c>
-      <c r="D113">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="D113" t="s">
+        <v>199</v>
+      </c>
+      <c r="E113">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C114" t="s">
-        <v>151</v>
-      </c>
-      <c r="D114">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="D114" t="s">
+        <v>199</v>
+      </c>
+      <c r="E114">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C115" t="s">
-        <v>157</v>
-      </c>
-      <c r="D115">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="D115" t="s">
+        <v>199</v>
+      </c>
+      <c r="E115">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="C116" t="s">
-        <v>46</v>
-      </c>
-      <c r="D116">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="D116" t="s">
+        <v>199</v>
+      </c>
+      <c r="E116">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="C117" t="s">
+        <v>177</v>
+      </c>
+      <c r="D117" t="s">
+        <v>199</v>
+      </c>
+      <c r="E117">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s">
+        <v>59</v>
+      </c>
+      <c r="C118" t="s">
+        <v>45</v>
+      </c>
+      <c r="D118" t="s">
+        <v>199</v>
+      </c>
+      <c r="E118">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
         <v>114</v>
       </c>
-      <c r="D117">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>14</v>
-      </c>
-      <c r="B118" t="s">
-        <v>131</v>
-      </c>
-      <c r="C118" t="s">
-        <v>130</v>
-      </c>
-      <c r="D118">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>14</v>
-      </c>
-      <c r="B119" t="s">
-        <v>142</v>
-      </c>
       <c r="C119" t="s">
-        <v>143</v>
-      </c>
-      <c r="D119">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="D119" t="s">
+        <v>199</v>
+      </c>
+      <c r="E119">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C120" t="s">
-        <v>178</v>
-      </c>
-      <c r="D120">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>14</v>
-      </c>
-      <c r="B121" t="s">
-        <v>184</v>
-      </c>
-      <c r="C121" t="s">
-        <v>179</v>
-      </c>
-      <c r="D121">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>20</v>
-      </c>
-      <c r="B122" t="s">
-        <v>60</v>
-      </c>
-      <c r="C122" t="s">
-        <v>46</v>
-      </c>
-      <c r="D122">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>20</v>
-      </c>
-      <c r="B123" t="s">
-        <v>75</v>
-      </c>
-      <c r="C123" t="s">
-        <v>76</v>
-      </c>
-      <c r="D123">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>20</v>
-      </c>
-      <c r="B124" t="s">
-        <v>77</v>
-      </c>
-      <c r="C124" t="s">
-        <v>76</v>
-      </c>
-      <c r="D124">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>20</v>
-      </c>
-      <c r="B125" t="s">
-        <v>78</v>
-      </c>
-      <c r="C125" t="s">
-        <v>76</v>
-      </c>
-      <c r="D125">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>20</v>
-      </c>
-      <c r="B126" t="s">
-        <v>116</v>
-      </c>
-      <c r="C126" t="s">
-        <v>114</v>
-      </c>
-      <c r="D126">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>20</v>
-      </c>
-      <c r="B127" t="s">
-        <v>138</v>
-      </c>
-      <c r="C127" t="s">
-        <v>137</v>
-      </c>
-      <c r="D127">
+        <v>135</v>
+      </c>
+      <c r="D120" t="s">
+        <v>199</v>
+      </c>
+      <c r="E120">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C127">
-    <sortCondition ref="A91:A127"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C120">
+    <sortCondition ref="A87:A120"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dersler.xlsx
+++ b/dersler.xlsx
@@ -8,22 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EFE\PycharmProjects\DersTestv3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E737ACEC-2C90-45CE-AB2B-775C03281393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEAAA98-DA89-42E0-AFED-2C76E25DC539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OgretimUyeleri" sheetId="1" r:id="rId1"/>
-    <sheet name="Dersler" sheetId="2" r:id="rId2"/>
-    <sheet name="Derslikler" sheetId="3" r:id="rId3"/>
-    <sheet name="OgretimUyeleriDersler" sheetId="4" r:id="rId4"/>
+    <sheet name="Derslikler" sheetId="3" r:id="rId1"/>
+    <sheet name="OgretimUyeleriDersler" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="182">
   <si>
     <t>OgretimUyesi</t>
   </si>
@@ -103,9 +101,6 @@
     <t>Prof. Dr. Keti VENTURA</t>
   </si>
   <si>
-    <t>Dersler</t>
-  </si>
-  <si>
     <t>Sinif</t>
   </si>
   <si>
@@ -247,30 +242,9 @@
     <t>Retailing I</t>
   </si>
   <si>
-    <t>Muhasebe I (Örgün + İ.Ö.)</t>
-  </si>
-  <si>
-    <t>0. Sınıf</t>
-  </si>
-  <si>
-    <t>Muhasebe II (Tasfiye)</t>
-  </si>
-  <si>
-    <t>Uygulamalı Finansal Piyasa İşlemleri (Örgün)</t>
-  </si>
-  <si>
-    <t>Business I (Tasfiye)</t>
-  </si>
-  <si>
-    <t>Introduction to Business (Örgün + İ.Ö)</t>
-  </si>
-  <si>
     <t>Hukukun Temel Kavramları (Örgün + İ.Ö.)</t>
   </si>
   <si>
-    <t>Ticaret Hukuku (Tasfiye)</t>
-  </si>
-  <si>
     <t>Derslikler</t>
   </si>
   <si>
@@ -424,9 +398,6 @@
     <t>Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri</t>
   </si>
   <si>
-    <t>Dönem Projesi</t>
-  </si>
-  <si>
     <t>Stratejik Finans Yönetimi</t>
   </si>
   <si>
@@ -481,12 +452,6 @@
     <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz</t>
   </si>
   <si>
-    <t>İşletme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz</t>
-  </si>
-  <si>
-    <t>İşletme İ.Ö. Tezsiz, İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz</t>
-  </si>
-  <si>
     <t>Pazarlamada Güncel Konular</t>
   </si>
   <si>
@@ -499,9 +464,6 @@
     <t>E-Pazarlama</t>
   </si>
   <si>
-    <t>İşletme Tezli, Üretim Yönetimi ve Sayısal Yöntemler Tezli</t>
-  </si>
-  <si>
     <t>Üretim Çizelgeleme</t>
   </si>
   <si>
@@ -587,24 +549,6 @@
   </si>
   <si>
     <t>Yönetimin Felsefi Temelleri</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz, Muhasebe ve Finansman İ.Ö. Tezsiz, İşletme Tezli, Pazarlama Tezli, Yönetim Bilimi ve Organizasyon Tezli, Üretim Yönetimi ve Sayısal Yöntemler Doktora, Yönetim ve Organizasyon Doktora</t>
-  </si>
-  <si>
-    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, İşletme Tezli, Pazarlama Tezli</t>
-  </si>
-  <si>
-    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, İşletme Tezli, Pazarlama Tezli</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli</t>
-  </si>
-  <si>
-    <t>İşletme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, İşletme Tezli, Pazarlama Tezli</t>
-  </si>
-  <si>
-    <t>Uzaktan Öğretim İşletme Tezsiz, İşletme Tezli, Üretim Yönetimi ve Sayısal Yöntemler Tezli</t>
   </si>
   <si>
     <t>Pazarlama Kuramı</t>
@@ -652,7 +596,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -675,20 +619,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -699,6 +703,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04F2CE34-9C9F-4FE9-9BA5-1E67E0CDD6A9}" name="Table1" displayName="Table1" ref="A1:E120" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:E120" xr:uid="{04F2CE34-9C9F-4FE9-9BA5-1E67E0CDD6A9}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{91909A64-EB67-447C-9153-DA7BA2D886A1}" name="OgretimUyesi"/>
+    <tableColumn id="2" xr3:uid="{CAECF397-3A91-43CB-9670-BA7E8B41E1DB}" name="Ders"/>
+    <tableColumn id="3" xr3:uid="{5E9CFF72-E0AF-4FDC-B88D-0F8B810F331D}" name="Sinif"/>
+    <tableColumn id="4" xr3:uid="{B896B4CD-004C-4483-B8CA-50D053A95B4D}" name="Durum"/>
+    <tableColumn id="5" xr3:uid="{1BC5DC47-3E85-4A22-8F39-5940D96C8A59}" name="Kontenjan"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -985,1070 +1003,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B108"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="42.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="118" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>186</v>
-      </c>
-      <c r="B29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>126</v>
-      </c>
-      <c r="B42" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>131</v>
-      </c>
-      <c r="B43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>179</v>
-      </c>
-      <c r="B50" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>163</v>
-      </c>
-      <c r="B58" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>142</v>
-      </c>
-      <c r="B64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>169</v>
-      </c>
-      <c r="B67" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>137</v>
-      </c>
-      <c r="B68" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>160</v>
-      </c>
-      <c r="B70" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>134</v>
-      </c>
-      <c r="B71" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>114</v>
-      </c>
-      <c r="B72" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>119</v>
-      </c>
-      <c r="B73" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>181</v>
-      </c>
-      <c r="B74" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>144</v>
-      </c>
-      <c r="B75" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>146</v>
-      </c>
-      <c r="B76" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>183</v>
-      </c>
-      <c r="B77" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>132</v>
-      </c>
-      <c r="B80" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>147</v>
-      </c>
-      <c r="B81" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>116</v>
-      </c>
-      <c r="B84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>81</v>
-      </c>
-      <c r="B85" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>156</v>
-      </c>
-      <c r="B86" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>196</v>
-      </c>
-      <c r="B87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>197</v>
-      </c>
-      <c r="B88" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>35</v>
-      </c>
-      <c r="B89" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>139</v>
-      </c>
-      <c r="B90" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>159</v>
-      </c>
-      <c r="B91" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>180</v>
-      </c>
-      <c r="B92" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>166</v>
-      </c>
-      <c r="B93" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>171</v>
-      </c>
-      <c r="B94" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>59</v>
-      </c>
-      <c r="B95" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>77</v>
-      </c>
-      <c r="B96" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>138</v>
-      </c>
-      <c r="B97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>140</v>
-      </c>
-      <c r="B98" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>72</v>
-      </c>
-      <c r="B99" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>167</v>
-      </c>
-      <c r="B100" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>62</v>
-      </c>
-      <c r="B101" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>127</v>
-      </c>
-      <c r="B102" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>172</v>
-      </c>
-      <c r="B103" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>64</v>
-      </c>
-      <c r="B104" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>55</v>
-      </c>
-      <c r="B105" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>161</v>
-      </c>
-      <c r="B106" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>187</v>
-      </c>
-      <c r="B107" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>194</v>
-      </c>
-      <c r="B108" t="s">
-        <v>195</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B107">
-    <sortCondition ref="A27:A107"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -2064,15 +1018,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -2080,7 +1034,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -2088,7 +1042,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -2096,7 +1050,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -2104,7 +1058,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -2112,7 +1066,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -2120,7 +1074,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -2128,7 +1082,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -2136,7 +1090,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -2144,7 +1098,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -2152,7 +1106,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -2160,7 +1114,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -2168,7 +1122,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -2176,7 +1130,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -2184,7 +1138,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -2192,7 +1146,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B17">
         <v>100</v>
@@ -2200,7 +1154,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -2208,7 +1162,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B19">
         <v>100</v>
@@ -2216,7 +1170,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B20">
         <v>41</v>
@@ -2224,7 +1178,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B21">
         <v>36</v>
@@ -2232,7 +1186,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B22">
         <v>64</v>
@@ -2243,12 +1197,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2257,24 +1211,24 @@
     <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
+      <c r="B1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2282,13 +1236,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E2">
         <v>70</v>
@@ -2299,13 +1253,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E3">
         <v>70</v>
@@ -2316,13 +1270,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E4">
         <v>70</v>
@@ -2333,13 +1287,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E5">
         <v>70</v>
@@ -2350,13 +1304,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E6">
         <v>70</v>
@@ -2367,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E7">
         <v>70</v>
@@ -2384,13 +1338,13 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E8">
         <v>70</v>
@@ -2401,13 +1355,13 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E9">
         <v>70</v>
@@ -2418,13 +1372,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E10">
         <v>70</v>
@@ -2435,13 +1389,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E11">
         <v>70</v>
@@ -2452,13 +1406,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E12">
         <v>70</v>
@@ -2469,13 +1423,13 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E13">
         <v>70</v>
@@ -2486,13 +1440,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E14">
         <v>70</v>
@@ -2503,13 +1457,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E15">
         <v>70</v>
@@ -2520,13 +1474,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E16">
         <v>70</v>
@@ -2537,13 +1491,13 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E17">
         <v>70</v>
@@ -2554,13 +1508,13 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E18">
         <v>70</v>
@@ -2571,13 +1525,13 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E19">
         <v>70</v>
@@ -2588,13 +1542,13 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E20">
         <v>70</v>
@@ -2605,13 +1559,13 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E21">
         <v>70</v>
@@ -2622,13 +1576,13 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E22">
         <v>70</v>
@@ -2639,13 +1593,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E23">
         <v>70</v>
@@ -2656,13 +1610,13 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E24">
         <v>70</v>
@@ -2673,13 +1627,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E25">
         <v>70</v>
@@ -2687,16 +1641,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E26">
         <v>70</v>
@@ -2704,16 +1658,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E27">
         <v>70</v>
@@ -2724,13 +1678,13 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E28">
         <v>70</v>
@@ -2741,13 +1695,13 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E29">
         <v>70</v>
@@ -2758,13 +1712,13 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E30">
         <v>70</v>
@@ -2775,13 +1729,13 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E31">
         <v>70</v>
@@ -2792,13 +1746,13 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E32">
         <v>70</v>
@@ -2809,13 +1763,13 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E33">
         <v>70</v>
@@ -2826,13 +1780,13 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D34" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E34">
         <v>70</v>
@@ -2843,13 +1797,13 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
       <c r="D35" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E35">
         <v>70</v>
@@ -2860,13 +1814,13 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E36">
         <v>70</v>
@@ -2877,13 +1831,13 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E37">
         <v>70</v>
@@ -2894,13 +1848,13 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E38">
         <v>70</v>
@@ -2911,13 +1865,13 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D39" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E39">
         <v>70</v>
@@ -2928,13 +1882,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E40">
         <v>70</v>
@@ -2945,13 +1899,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E41">
         <v>70</v>
@@ -2962,13 +1916,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E42">
         <v>70</v>
@@ -2979,13 +1933,13 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E43">
         <v>70</v>
@@ -2996,13 +1950,13 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E44">
         <v>70</v>
@@ -3013,13 +1967,13 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D45" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E45">
         <v>70</v>
@@ -3030,13 +1984,13 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E46">
         <v>70</v>
@@ -3047,13 +2001,13 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E47">
         <v>70</v>
@@ -3064,13 +2018,13 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E48">
         <v>70</v>
@@ -3081,13 +2035,13 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D49" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E49">
         <v>70</v>
@@ -3098,13 +2052,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E50">
         <v>70</v>
@@ -3115,13 +2069,13 @@
         <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E51">
         <v>70</v>
@@ -3132,13 +2086,13 @@
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D52" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E52">
         <v>70</v>
@@ -3149,13 +2103,13 @@
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E53">
         <v>70</v>
@@ -3166,13 +2120,13 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D54" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E54">
         <v>70</v>
@@ -3180,16 +2134,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
         <v>28</v>
       </c>
-      <c r="C55" t="s">
-        <v>29</v>
-      </c>
       <c r="D55" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E55">
         <v>70</v>
@@ -3197,16 +2151,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E56">
         <v>70</v>
@@ -3214,16 +2168,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E57">
         <v>70</v>
@@ -3231,16 +2185,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E58">
         <v>70</v>
@@ -3248,16 +2202,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E59">
         <v>70</v>
@@ -3268,13 +2222,13 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E60">
         <v>70</v>
@@ -3285,13 +2239,13 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E61">
         <v>70</v>
@@ -3302,13 +2256,13 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E62">
         <v>70</v>
@@ -3319,13 +2273,13 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E63">
         <v>70</v>
@@ -3336,13 +2290,13 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D64" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E64">
         <v>70</v>
@@ -3353,13 +2307,13 @@
         <v>24</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D65" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E65">
         <v>70</v>
@@ -3370,13 +2324,13 @@
         <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E66">
         <v>70</v>
@@ -3387,13 +2341,13 @@
         <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D67" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E67">
         <v>70</v>
@@ -3404,13 +2358,13 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D68" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E68">
         <v>70</v>
@@ -3421,13 +2375,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D69" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E69">
         <v>70</v>
@@ -3438,13 +2392,13 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D70" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E70">
         <v>70</v>
@@ -3455,13 +2409,13 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D71" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -3472,13 +2426,13 @@
         <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E72">
         <v>70</v>
@@ -3489,13 +2443,13 @@
         <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C73" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D73" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E73">
         <v>70</v>
@@ -3506,13 +2460,13 @@
         <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C74" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D74" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E74">
         <v>70</v>
@@ -3523,13 +2477,13 @@
         <v>23</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D75" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E75">
         <v>70</v>
@@ -3540,13 +2494,13 @@
         <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D76" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E76">
         <v>70</v>
@@ -3557,13 +2511,13 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E77">
         <v>70</v>
@@ -3574,13 +2528,13 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D78" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E78">
         <v>70</v>
@@ -3591,13 +2545,13 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C79" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E79">
         <v>70</v>
@@ -3608,13 +2562,13 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D80" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E80">
         <v>70</v>
@@ -3625,13 +2579,13 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C81" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D81" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E81">
         <v>70</v>
@@ -3642,13 +2596,13 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D82" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E82">
         <v>70</v>
@@ -3659,13 +2613,13 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D83" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E83">
         <v>70</v>
@@ -3676,13 +2630,13 @@
         <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D84" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E84">
         <v>70</v>
@@ -3693,13 +2647,13 @@
         <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D85" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E85">
         <v>70</v>
@@ -3710,13 +2664,13 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C86" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D86" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E86">
         <v>70</v>
@@ -3727,13 +2681,13 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D87" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E87">
         <v>70</v>
@@ -3744,13 +2698,13 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C88" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D88" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E88">
         <v>70</v>
@@ -3761,13 +2715,13 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D89" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E89">
         <v>70</v>
@@ -3778,13 +2732,13 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D90" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E90">
         <v>70</v>
@@ -3795,13 +2749,13 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C91" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D91" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E91">
         <v>70</v>
@@ -3812,13 +2766,13 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D92" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E92">
         <v>70</v>
@@ -3829,13 +2783,13 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D93" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E93">
         <v>70</v>
@@ -3846,13 +2800,13 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C94" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D94" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E94">
         <v>70</v>
@@ -3863,13 +2817,13 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C95" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D95" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E95">
         <v>70</v>
@@ -3880,13 +2834,13 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D96" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E96">
         <v>70</v>
@@ -3897,13 +2851,13 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C97" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D97" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E97">
         <v>70</v>
@@ -3914,13 +2868,13 @@
         <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D98" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E98">
         <v>70</v>
@@ -3931,13 +2885,13 @@
         <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C99" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D99" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E99">
         <v>70</v>
@@ -3948,13 +2902,13 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C100" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D100" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E100">
         <v>70</v>
@@ -3965,13 +2919,13 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D101" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E101">
         <v>70</v>
@@ -3982,13 +2936,13 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C102" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D102" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E102">
         <v>70</v>
@@ -3999,13 +2953,13 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C103" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D103" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E103">
         <v>70</v>
@@ -4016,13 +2970,13 @@
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C104" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D104" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E104">
         <v>70</v>
@@ -4033,13 +2987,13 @@
         <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D105" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E105">
         <v>70</v>
@@ -4050,13 +3004,13 @@
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D106" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E106">
         <v>70</v>
@@ -4067,13 +3021,13 @@
         <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D107" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E107">
         <v>70</v>
@@ -4084,13 +3038,13 @@
         <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D108" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E108">
         <v>70</v>
@@ -4101,13 +3055,13 @@
         <v>25</v>
       </c>
       <c r="B109" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D109" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E109">
         <v>70</v>
@@ -4118,13 +3072,13 @@
         <v>25</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C110" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D110" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E110">
         <v>70</v>
@@ -4135,13 +3089,13 @@
         <v>25</v>
       </c>
       <c r="B111" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C111" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D111" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E111">
         <v>70</v>
@@ -4152,13 +3106,13 @@
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D112" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E112">
         <v>70</v>
@@ -4169,13 +3123,13 @@
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C113" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D113" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E113">
         <v>70</v>
@@ -4186,13 +3140,13 @@
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D114" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E114">
         <v>70</v>
@@ -4203,13 +3157,13 @@
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D115" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E115">
         <v>70</v>
@@ -4220,13 +3174,13 @@
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C116" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D116" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E116">
         <v>70</v>
@@ -4237,13 +3191,13 @@
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C117" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D117" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E117">
         <v>70</v>
@@ -4254,13 +3208,13 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D118" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E118">
         <v>70</v>
@@ -4271,13 +3225,13 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C119" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D119" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E119">
         <v>70</v>
@@ -4288,13 +3242,13 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C120" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D120" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E120">
         <v>70</v>
@@ -4305,5 +3259,8 @@
     <sortCondition ref="A87:A120"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/dersler.xlsx
+++ b/dersler.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EFE\PycharmProjects\DersTestv3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EFE\PycharmProjects\DersTestv2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEAAA98-DA89-42E0-AFED-2C76E25DC539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB80564-BFCD-448B-AEA4-01CB366247C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="183">
   <si>
     <t>OgretimUyesi</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>Zorunlu</t>
+  </si>
+  <si>
+    <t>Seçmeli</t>
   </si>
 </sst>
 </file>
@@ -650,6 +653,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -678,20 +695,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -706,7 +709,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04F2CE34-9C9F-4FE9-9BA5-1E67E0CDD6A9}" name="Table1" displayName="Table1" ref="A1:E120" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04F2CE34-9C9F-4FE9-9BA5-1E67E0CDD6A9}" name="Table1" displayName="Table1" ref="A1:E120" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:E120" xr:uid="{04F2CE34-9C9F-4FE9-9BA5-1E67E0CDD6A9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{91909A64-EB67-447C-9153-DA7BA2D886A1}" name="OgretimUyesi"/>
@@ -1202,7 +1205,7 @@
   <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2143,7 +2146,7 @@
         <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E55">
         <v>70</v>
@@ -2160,7 +2163,7 @@
         <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E56">
         <v>70</v>
@@ -2177,7 +2180,7 @@
         <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E57">
         <v>70</v>
@@ -2194,7 +2197,7 @@
         <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E58">
         <v>70</v>
@@ -2211,7 +2214,7 @@
         <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E59">
         <v>70</v>
